--- a/DRE/cap07-TareasAutomaticas/_Ant/#IPT_ACRM_TP_Ficha_Plantilla_150514.xlsx
+++ b/DRE/cap07-TareasAutomaticas/_Ant/#IPT_ACRM_TP_Ficha_Plantilla_150514.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap07-TareasAutomaticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Input(s)</t>
   </si>
@@ -32,53 +32,100 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Task to create</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
-    <t>Send Email?</t>
-  </si>
-  <si>
     <t>Output(s)</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Diaria/Semanal/Mensual/….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entradas </t>
-  </si>
-  <si>
-    <t>Breve descripción.</t>
-  </si>
-  <si>
-    <t>Grupo de usuarios o persona que tendrá una tarea creada</t>
-  </si>
-  <si>
-    <t>Plazo máximo de cumplimiento de la tarea</t>
-  </si>
-  <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>Salidas</t>
+    <t>Por definir</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content: </t>
+  </si>
+  <si>
+    <t>TP - Pipeline price check</t>
+  </si>
+  <si>
+    <t>Back-office (BO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitirá un informe a Back-office con un listado de todos lo items/posiciones de todas las ofertas nuevas realizadas desde el último informe que:
+(i)  tengan probabilidad  &gt; "X" % 
+(ii) tengan precio &gt;= "Y" € </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Artículos y productos de la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BD3 - Products and Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Ofertas de la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BD5 - Offers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Parámetros X, Y, para el informe</t>
+    </r>
+  </si>
+  <si>
+    <t>- INFORME Pipeline price check</t>
+  </si>
+  <si>
+    <t>Enlace al INFORME Pipeline price check</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Personal Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,15 +134,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,19 +176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,165 +235,195 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,134 +705,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="s">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:B8"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
